--- a/Prueba gitHub.xlsx
+++ b/Prueba gitHub.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t xml:space="preserve">Series </t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t xml:space="preserve">Extracción </t>
+  </si>
+  <si>
+    <t>Mapeado</t>
   </si>
 </sst>
 </file>
@@ -356,15 +359,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -374,8 +377,11 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -385,8 +391,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -396,8 +405,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -407,8 +419,11 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -418,8 +433,11 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -429,8 +447,11 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -440,8 +461,11 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -451,8 +475,11 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -462,8 +489,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -473,8 +503,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -482,6 +515,9 @@
         <v>3</v>
       </c>
       <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
     </row>
